--- a/biology/Zoologie/Carnegiella/Carnegiella.xlsx
+++ b/biology/Zoologie/Carnegiella/Carnegiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Carnegiella regroupe plusieurs espèces de poissons américains de la famille des Gasteropelecidae. Les poissons de ce genre sont appelés communément « poissons-hachettes » en raison de leur forme caractéristique. Ce sont des poissons vivant essentiellement sous la surface de l'eau. Ils sont capables de s'envoler sur de courtes distances. On les élève couramment en aquarium, où ils sont appréciés du fait de leur forme originale
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Carnegiella regroupe de petites espèces de poissons volants d'eau douce, appartenant à la famille des Gasteropelecidae, connues pour leur capacité à effectuer des sauts hors de l'eau, utilisant leurs larges pectorales comme des ailes pour planer sur de courtes distances au-dessus de l'eau. Ces poissons, au corps fortement comprimé latéralement et caractérisé par une silhouette en forme de hache, affichent une coloration allant du brun argenté au noir métallique, souvent agrémentée de motifs et de marques distinctives qui varient selon les espèces. Les Carnegiella mesurent généralement entre 3 et 5 cm de longueur à l'âge adulte, ce qui en fait des habitants parfaits pour les aquariums communautaires de taille moyenne. Leurs nageoires pectorales étendues, utilisées pour le "vol", sont l'attribut le plus remarquable de ces poissons, tandis que leur petite bouche orientée vers le haut suggère leur préférence alimentaire pour les insectes de surface et d'autres petites proies aquatiques. Adaptés à une vie dans les eaux calmes et ombragées des rivières, des criques et des zones inondées de la forêt amazonienne, les Carnegiella incarnent l'ingéniosité adaptative des poissons d'eau douce tropicaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces proches des Carnegiella comprennent d'autres membres de la famille des Gasteropelecidae, tels que les genres Gasteropelecus et Thoracocharax. Ces genres partagent plusieurs caractéristiques communes avec les Carnegiella, notamment leur capacité à effectuer des sauts hors de l'eau et à glisser sur de courtes distances, grâce à leurs larges nageoires pectorales qui agissent comme des ailes. Gasteropelecus est souvent reconnu par des tailles légèrement plus grandes et par des corps en forme de hache plus prononcés, ce qui leur confère une aptitude encore plus marquée pour le "vol" hors de l'eau. Thoracocharax se distingue par des corps plus allongés et une taille plus grande, avec certaines espèces atteignant jusqu'à 8 cm de longueur. Ces poissons partagent un habitat similaire, peuplant les eaux douces d'Amérique du Sud, et ont des exigences diététiques comparables, se nourrissant principalement à la surface de l'eau de petits insectes et d'autres proies flottantes. Ensemble, ces genres illustrent la diversité adaptative des poissons volants d'eau douce au sein des écosystèmes aquatiques sud-américains, chacun ayant développé des stratégies uniques pour la survie et la prédation dans leur environnement partagé.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Carnegiella sont originaires des cours d'eau douce d'Amérique du Sud, notamment dans le bassin de l'Amazone, du bassin de l'Orénoque, et des systèmes fluviaux des Guyanes. Ces petits poissons, connus sous le nom de poissons-hachettes en raison de leur forme corporelle distinctive rappelant la lame d'une hachette, préfèrent les eaux calmes et peu profondes avec une abondance de végétation flottante ou submergée. Ils habitent principalement les zones de forêt inondée (várzea), les criques tranquilles, et les lisières de rivières et de lacs, où ils peuvent se cacher des prédateurs et chasser les insectes à la surface de l'eau. Leur capacité à sauter hors de l'eau pour échapper aux prédateurs ou capturer des proies est bien adaptée à ces habitats densément plantés. La distribution de Carnegiella met en évidence l'importance des habitats d'eau douce préservés et de la canopée forestière pour la survie de ces espèces, soulignant le rôle crucial de la conservation des écosystèmes aquatiques et forestiers en Amérique du Sud.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carnegiella sont connus pour leur comportement unique et spécialisé, caractérisé principalement par leur capacité à sauter et à planer hors de l'eau pour échapper aux prédateurs ou capturer des proies. Ces "poissons volants" d'eau douce utilisent leurs larges nageoires pectorales pour se propulser dans les airs sur de courtes distances, un trait distinctif qui les distingue dans le monde aquatique. En dehors de ces sauts spectaculaires, ils mènent une vie relativement paisible, préférant les eaux calmes et les zones densément végétalisées qui offrent protection et abondance de nourriture. Ils sont également des poissons grégaires, se déplaçant souvent en bancs pour augmenter leurs chances de survie contre les prédateurs. Cette tendance à former des groupes contribue à un comportement complexe en matière de communication et de structuration sociale au sein de l'espèce. Leur activité principalement diurne les voit s'alimenter à la surface, où leur petite bouche orientée vers le haut est adaptée à la capture d'insectes aquatiques et d'autres petites proies flottantes.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Carnegiella sont principalement insectivores, se nourrissant d'une grande variété d'insectes aquatiques et terrestres qui tombent à la surface de l'eau. Leur petite bouche supérieure est parfaitement adaptée pour saisir ces proies à la surface. Outre les insectes, leur régime peut également inclure de petits crustacés, des arthropodes et parfois des matières végétales flottantes, bien que ces dernières constituent une part mineure de leur alimentation. Leur stratégie alimentaire est opportuniste, exploitant la richesse des écosystèmes d'eau douce d'Amérique du Sud en termes de biodiversité d'insectes. Le comportement alimentaire de Carnegiella met en évidence leur adaptation à la vie dans des habitats où la surface de l'eau agit comme une interface clé pour l'accès à la nourriture. Cette spécialisation alimentaire souligne l'importance de maintenir la qualité de l'habitat et la biodiversité environnante pour la survie de ces poissons.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Carnegiella, comme pour de nombreux poissons d'eau douce tropicaux, tend à suivre des schémas saisonniers, souvent déclenchée par les variations de l'environnement telles que les saisons des pluies, qui augmentent le volume d'eau et la disponibilité des habitats de frai. Ces poissons sont ovipares, pondant des œufs qui sont ensuite fécondés à l'extérieur du corps. Les détails spécifiques de leur comportement de reproduction, tels que les parades nuptiales, le nombre d'œufs pondus, et les soins parentaux, peuvent varier, mais en général, il y a peu ou pas de soins parentaux après la ponte. Les œufs sont souvent dispersés parmi la végétation aquatique ou dans d'autres substrats propices, où ils restent jusqu'à l'éclosion. Cette stratégie de reproduction permet une dispersion rapide des jeunes dans des habitats riches en ressources, essentielle pour leur survie et leur croissance. La saisonnalité de la reproduction garantit également que l'éclosion des œufs coïncide avec des périodes où les conditions environnementales sont les plus favorables pour les alevins, telles que des températures de l'eau optimales et une abondance de nourriture.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La maintenance des Carnegiella en captivité requiert une attention particulière à leur environnement naturel pour assurer leur bien-être. Ces poissons préfèrent des aquariums bien plantés avec beaucoup d'espaces ouverts en surface pour imiter leur habitat naturel de rivières et de cours d'eau lents avec une végétation dense. Une couverture végétale adéquate non seulement simule leur environnement naturel mais aide également à réduire le stress, offrant des cachettes et des zones d'ombre. L'eau doit être douce à légèrement acide, avec des paramètres stables de température (idéalement entre 24 et 28°C) et de pH (entre 6,0 et 7,5), pour imiter les conditions des eaux tropicales d'Amérique du Sud. Les changements d'eau réguliers sont essentiels pour maintenir la qualité de l'eau et minimiser les niveaux de nitrates et d'ammoniaque. Une filtration efficace qui ne crée pas de courants forts est préférable, car ces poissons préfèrent les eaux calmes. Enfin, il est crucial de couvrir l'aquarium, car les Carnegiella sont connus pour leur capacité à sauter, en particulier s'ils sont effrayés ou stressés, pour prévenir toute évasion accidentelle.
@@ -729,7 +755,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élevage des poissons du genre Carnegiella en captivité représente un défi mais peut être réussi avec une approche méticuleuse. Pour stimuler la reproduction, il est conseillé de reproduire les conditions environnementales de la saison des pluies, telles que l'augmentation des changements d'eau et une légère baisse du pH, qui imitent leur habitat naturel durant cette période propice à la frai. Un régime alimentaire varié et riche, comprenant des aliments vivants ou congelés, peut également favoriser la condition physique des reproducteurs. Les œufs sont généralement pondus sur des substrats flottants ou parmi la végétation fine, où ils peuvent être protégés et oxygénés sans l'interférence des parents, qui ne montrent pas de comportement de soins après la ponte. Après la ponte, il peut être judicieux de retirer les adultes pour éviter la prédation des œufs ou des larves. Les jeunes alevins, une fois éclos, nécessitent une alimentation adaptée à leur petite taille, comme des infusoires ou du plancton, avant de pouvoir passer à des aliments plus gros. L'élevage réussi de Carnegiella en captivité exige donc une attention particulière aux détails de leur cycle de vie et de leurs besoins spécifiques en matière d'habitat et de nutrition.
